--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -12,8 +12,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgrcNGyWW798PJfVAlfQWD/Wy2mxw=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="CnCEmgGkQqJQihzKQYvh5dBACwBLgh7nfbAveK2umAQ="/>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +31,7 @@
 ID#AAAALJdHE_E
 Icmi Alif Safitri    (2021-01-21 10:02:03)
 Mas @deon@iesr.or.id kalo ada tipe pembangkit baru yg sebelumnya tidak ada, nambahin kolom atau ikut template yg lama?
-_Assigned to Deon Arinaldo_
+_Assigned to deon@iesr.or.id_
 ------
 ID#AAAAHpoOlZ8
 Deon Arinaldo    (2021-01-21 12:55:07)
@@ -54,8 +54,8 @@
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miKqyIBB0EFGYHTYvrdQTK4s0fgYg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjRQN57/9F6jJGtGzh3dp6EuEmCrg=="/>
     </ext>
   </extLst>
 </comments>
@@ -61905,7 +61905,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="105">
-        <v>4496.0</v>
+        <v>4984.0</v>
       </c>
       <c r="C3" s="107">
         <f>sumif(Capacity!$B$4:$P$4,A3,Capacity!$B$24:$P$24)</f>
